--- a/templates/secondary figures.xlsx
+++ b/templates/secondary figures.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/andy_baxter_glasgow_ac_uk/Documents/R Studio - home folder/Knitting HBSC reports/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C367D74-4413-4F12-90C4-32AA315EE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{8C367D74-4413-4F12-90C4-32AA315EE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B92CA3-DC7D-45D7-9A49-1A2F17556D2C}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="secondary figures" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
   <si>
     <t>Figure</t>
   </si>
@@ -368,12 +368,18 @@
   </si>
   <si>
     <t>"More than once a week", "About every day"</t>
+  </si>
+  <si>
+    <t>"Negative"/"Positive"</t>
+  </si>
+  <si>
+    <t>covidlife, covidhealth, covidfamrel, covidfriendrel, covidmh, covidsch, covidactivity, coviddiet, covidfuture, covidfinance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -926,7 +932,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -958,14 +964,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCDACE6"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCDACE6"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -980,356 +986,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB9B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB9B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB9B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB9B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB9B9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDACE6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1657,17 +1313,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2041,7 +1698,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2052,7 +1709,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2063,7 +1720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2074,7 +1731,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2085,7 +1742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2096,7 +1753,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2107,7 +1764,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -2117,8 +1774,14 @@
       <c r="C39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2128,8 +1791,14 @@
       <c r="C40" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2139,8 +1808,14 @@
       <c r="C41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -2150,8 +1825,14 @@
       <c r="C42" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2162,7 +1843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2173,7 +1854,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -2184,7 +1865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2195,7 +1876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2206,7 +1887,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -2251,32 +1932,32 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C51 D3:E3">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="C2:C51 D3:E3 D39:D42">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Bar by gender/grade - 1var"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Bar across vars"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Bar by gender/grade - combined vars"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Bar by gender - multivar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Bar by grade - multivar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Twobar diverging - multivar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Mean bar by grade - multivar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Mean bar by gender - multivar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Mean bar by gender/grade - 1var"</formula>
     </cfRule>
   </conditionalFormatting>
